--- a/Documentatie/Urenverantwoording/ammaar/urenverantwoording sjabloom (version 1).xlsb.xlsx
+++ b/Documentatie/Urenverantwoording/ammaar/urenverantwoording sjabloom (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EIGENAAR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B29210-1205-4550-A0DD-88614079BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C6A08-0351-4A5B-8BA8-2BA99494D59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="51">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>heb vandaag 2 keer bezig geweest, eerst even bezig geweest voor de een lijst maken van wat er de wasmachine in zit. Daarna uitgewerkt tot een vergelijkings document</t>
+  </si>
+  <si>
+    <t>afgemeld</t>
+  </si>
+  <si>
+    <t>feedback verslag bovenaanzicht van project met dirk</t>
+  </si>
+  <si>
+    <t>verslag overleg cees + uitleg wasmachine</t>
+  </si>
+  <si>
+    <t>feedback van de verslag.</t>
   </si>
 </sst>
 </file>
@@ -798,18 +810,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,6 +874,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2814,7 +2826,7 @@
                   <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20833333333333337</c:v>
+                  <c:v>0.57291666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3189,10 +3201,10 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.20833333333333337</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.23958333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.13541666666666674</c:v>
@@ -3201,7 +3213,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.208333333333337E-2</c:v>
+                  <c:v>0.19791666666666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3557,10 +3569,10 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.20833333333333337</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.17708333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3569,7 +3581,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.14583333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7002,10 +7014,10 @@
                   <c:v>5.208333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20833333333333337</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.17708333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -7014,7 +7026,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.14583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -14141,10 +14153,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14152,10 +14164,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14181,10 +14193,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14192,10 +14204,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14262,19 +14274,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14283,25 +14295,25 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="50">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14312,22 +14324,22 @@
         <f>F2</f>
         <v>45691</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14335,27 +14347,27 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14366,22 +14378,22 @@
         <f>A12+1</f>
         <v>45692</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14389,27 +14401,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0.13541666666666674</v>
       </c>
       <c r="C15" s="27">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14420,46 +14432,46 @@
         <f>A14+1</f>
         <v>45693</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14468,48 +14480,48 @@
         <f>A16+1</f>
         <v>45694</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14518,22 +14530,22 @@
         <f>A18+1</f>
         <v>45695</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14552,7 +14564,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14574,51 +14586,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14688,6 +14700,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14701,16 +14723,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14918,8 +14930,8 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15000,11 +15012,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15012,11 +15024,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15042,11 +15054,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15054,11 +15066,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15125,18 +15137,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15146,27 +15158,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
-        <v>0.20833333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="27">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15175,46 +15187,48 @@
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
-        <v>0.875</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
-        <v>0</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="C13" s="27">
-        <v>0</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15223,46 +15237,48 @@
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15271,46 +15287,48 @@
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15319,46 +15337,48 @@
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
-        <v>0</v>
+        <v>0.14583333333333337</v>
       </c>
       <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15367,22 +15387,22 @@
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15401,7 +15421,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15423,51 +15443,53 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15494,7 +15516,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 1'!D27)</f>
-        <v>0.45833333333333348</v>
+        <v>0.82291666666666685</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -15517,7 +15539,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0.20833333333333337</v>
+        <v>0.57291666666666674</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -15540,6 +15562,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="D15:N16"/>
+    <mergeCell ref="D17:N18"/>
+    <mergeCell ref="D19:N20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="C4:D4"/>
@@ -15549,20 +15585,6 @@
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
-    <mergeCell ref="D15:N16"/>
-    <mergeCell ref="D17:N18"/>
-    <mergeCell ref="D19:N20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15655,11 +15677,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15667,11 +15689,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15697,11 +15719,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15709,11 +15731,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15780,18 +15802,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15801,25 +15823,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15828,46 +15850,46 @@
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15876,46 +15898,46 @@
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15924,46 +15946,46 @@
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15972,46 +15994,46 @@
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16020,22 +16042,22 @@
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16054,7 +16076,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16076,51 +16098,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16147,7 +16169,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0.45833333333333348</v>
+        <v>0.82291666666666685</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16190,6 +16212,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16203,16 +16235,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16305,11 +16327,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16317,11 +16339,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16347,11 +16369,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16359,11 +16381,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16430,18 +16452,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16451,25 +16473,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16478,46 +16500,46 @@
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16526,46 +16548,46 @@
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16574,45 +16596,45 @@
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16622,45 +16644,45 @@
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16670,22 +16692,22 @@
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16704,7 +16726,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16726,51 +16748,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16797,7 +16819,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.45833333333333348</v>
+        <v>0.82291666666666685</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16840,6 +16862,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16853,16 +16885,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16955,11 +16977,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16967,11 +16989,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16997,11 +17019,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17009,11 +17031,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17080,18 +17102,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17101,25 +17123,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -17128,45 +17150,45 @@
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17176,45 +17198,45 @@
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17224,45 +17246,45 @@
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17272,45 +17294,45 @@
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17320,22 +17342,22 @@
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17354,7 +17376,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17376,51 +17398,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17447,7 +17469,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.45833333333333348</v>
+        <v>0.82291666666666685</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17490,6 +17512,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17503,16 +17535,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17617,11 +17639,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17629,11 +17651,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17659,11 +17681,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17671,11 +17693,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17742,18 +17764,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17763,25 +17785,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -17790,45 +17812,45 @@
         <f>F2</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17838,45 +17860,45 @@
         <f>A12+1</f>
         <v>45727</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17886,45 +17908,45 @@
         <f>A14+1</f>
         <v>45728</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17934,45 +17956,45 @@
         <f>A16+1</f>
         <v>45729</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17982,22 +18004,22 @@
         <f>A18+1</f>
         <v>45730</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18016,7 +18038,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18038,51 +18060,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18109,7 +18131,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.45833333333333348</v>
+        <v>0.82291666666666685</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18152,6 +18174,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18165,16 +18197,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18267,11 +18289,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18279,11 +18301,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18309,11 +18331,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18321,11 +18343,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18392,18 +18414,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18413,25 +18435,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -18440,45 +18462,45 @@
         <f>F2</f>
         <v>45733</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18488,45 +18510,45 @@
         <f>A12+1</f>
         <v>45734</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18536,45 +18558,45 @@
         <f>A14+1</f>
         <v>45735</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18584,45 +18606,45 @@
         <f>A16+1</f>
         <v>45736</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18632,22 +18654,22 @@
         <f>A18+1</f>
         <v>45737</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18666,7 +18688,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18688,51 +18710,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18759,7 +18781,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.45833333333333348</v>
+        <v>0.82291666666666685</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18802,6 +18824,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18815,16 +18847,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18929,11 +18951,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18941,11 +18963,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18971,11 +18993,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18983,11 +19005,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19054,18 +19076,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19075,25 +19097,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -19102,45 +19124,45 @@
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19150,45 +19172,45 @@
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19198,45 +19220,45 @@
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19246,45 +19268,45 @@
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19294,22 +19316,22 @@
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19328,7 +19350,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19350,51 +19372,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19421,7 +19443,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.45833333333333348</v>
+        <v>0.82291666666666685</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19464,6 +19486,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19477,16 +19509,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19619,7 +19641,7 @@
       </c>
       <c r="G4" s="45">
         <f>'week 2'!B11</f>
-        <v>0.20833333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="44" t="s">
@@ -19711,7 +19733,7 @@
       </c>
       <c r="G5" s="45">
         <f>'week 2'!B13</f>
-        <v>0</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="44" t="s">
@@ -19987,7 +20009,7 @@
       </c>
       <c r="G8" s="47">
         <f>'week 2'!B19</f>
-        <v>0</v>
+        <v>0.14583333333333337</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="46" t="s">
@@ -20069,7 +20091,7 @@
       </c>
       <c r="B24" s="48">
         <f>'week 2'!D28</f>
-        <v>0.20833333333333337</v>
+        <v>0.57291666666666674</v>
       </c>
       <c r="C24" s="48">
         <f>'week 3'!D28</f>
@@ -20099,11 +20121,11 @@
       <c r="M24" s="36"/>
       <c r="O24" s="36">
         <f>SUM(C4,G4,K4,O4,S4,W4,AA4,AE4)</f>
-        <v>0.20833333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="P24" s="36">
         <f>SUM(C5,G5,K5,O5,S5,W5,AA5,AE5)</f>
-        <v>6.25E-2</v>
+        <v>0.23958333333333331</v>
       </c>
       <c r="Q24" s="36">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6,AE6)</f>
@@ -20115,7 +20137,7 @@
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
-        <v>5.208333333333337E-2</v>
+        <v>0.19791666666666674</v>
       </c>
       <c r="U24" s="36"/>
       <c r="Y24" s="36"/>
@@ -20211,26 +20233,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20433,26 +20435,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20469,4 +20472,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/ammaar/urenverantwoording sjabloom (version 1).xlsb.xlsx
+++ b/Documentatie/Urenverantwoording/ammaar/urenverantwoording sjabloom (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EIGENAAR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C6A08-0351-4A5B-8BA8-2BA99494D59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453894E5-9191-461D-B7FF-3F995DF077AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="56">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -195,6 +195,21 @@
   </si>
   <si>
     <t>feedback van de verslag.</t>
+  </si>
+  <si>
+    <t>vakantie</t>
+  </si>
+  <si>
+    <t>top-down basis gemaakt</t>
+  </si>
+  <si>
+    <t>overleg en top-down in hdl gezet</t>
+  </si>
+  <si>
+    <t>afwezig</t>
+  </si>
+  <si>
+    <t>overleg</t>
   </si>
 </sst>
 </file>
@@ -810,6 +825,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,18 +901,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2829,10 +2844,10 @@
                   <c:v>0.57291666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.28125000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3201,19 +3216,19 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.23958333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13541666666666674</c:v>
+                  <c:v>0.30208333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19791666666666674</c:v>
+                  <c:v>0.31250000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4072,7 +4087,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4507,7 +4522,7 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4519,7 +4534,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.11458333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7035,7 +7050,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -7044,7 +7059,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -7056,7 +7071,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.11458333333333337</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -14153,10 +14168,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14164,10 +14179,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14193,10 +14208,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14204,10 +14219,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14274,19 +14289,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14295,25 +14310,25 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="54">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14324,22 +14339,22 @@
         <f>F2</f>
         <v>45691</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14347,27 +14362,27 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14378,22 +14393,22 @@
         <f>A12+1</f>
         <v>45692</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14401,27 +14416,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0.13541666666666674</v>
       </c>
       <c r="C15" s="27">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14432,46 +14447,46 @@
         <f>A14+1</f>
         <v>45693</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14480,48 +14495,48 @@
         <f>A16+1</f>
         <v>45694</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14530,22 +14545,22 @@
         <f>A18+1</f>
         <v>45695</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14564,7 +14579,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14586,51 +14601,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14700,16 +14715,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14723,6 +14728,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14930,7 +14945,7 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
@@ -15012,11 +15027,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15024,11 +15039,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15054,11 +15069,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15066,11 +15081,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15137,18 +15152,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15158,27 +15173,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0.25</v>
       </c>
       <c r="C11" s="27">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15187,48 +15202,48 @@
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0.17708333333333331</v>
       </c>
       <c r="C13" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15237,48 +15252,48 @@
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15287,48 +15302,48 @@
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15337,48 +15352,48 @@
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="C19" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15387,22 +15402,22 @@
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15421,7 +15436,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15443,53 +15458,53 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15562,11 +15577,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N12"/>
+    <mergeCell ref="D13:N14"/>
     <mergeCell ref="D15:N16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
@@ -15576,15 +15595,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N12"/>
-    <mergeCell ref="D13:N14"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15595,8 +15610,8 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15677,11 +15692,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15689,11 +15704,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15719,11 +15734,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15731,11 +15746,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15802,18 +15817,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15823,25 +15838,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15850,46 +15867,48 @@
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15898,46 +15917,48 @@
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="C15" s="27">
-        <v>0</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15946,46 +15967,48 @@
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15994,46 +16017,48 @@
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="D19" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16042,22 +16067,22 @@
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16076,7 +16101,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16098,51 +16123,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16169,7 +16194,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0.82291666666666685</v>
+        <v>0.98958333333333348</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16192,7 +16217,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -16212,16 +16237,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16235,6 +16250,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16245,8 +16270,8 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16327,11 +16352,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16339,11 +16364,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16369,11 +16394,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16381,11 +16406,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16452,18 +16477,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16473,25 +16498,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16500,46 +16527,48 @@
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16548,46 +16577,48 @@
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16596,45 +16627,47 @@
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16644,45 +16677,47 @@
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
-        <v>0</v>
+        <v>0.11458333333333337</v>
       </c>
       <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16692,22 +16727,22 @@
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16726,7 +16761,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16748,51 +16783,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16819,7 +16854,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.82291666666666685</v>
+        <v>1.2708333333333335</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16842,7 +16877,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.28125000000000006</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -16862,16 +16897,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16885,6 +16910,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16977,11 +17012,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16989,11 +17024,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17019,11 +17054,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17031,11 +17066,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17102,18 +17137,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17123,25 +17158,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17150,45 +17185,45 @@
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17198,45 +17233,45 @@
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17246,45 +17281,45 @@
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17294,45 +17329,45 @@
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17342,22 +17377,22 @@
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17376,7 +17411,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17398,51 +17433,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17469,7 +17504,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.82291666666666685</v>
+        <v>1.2708333333333335</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17512,16 +17547,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17535,6 +17560,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17639,11 +17674,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17651,11 +17686,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17681,11 +17716,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17693,11 +17728,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17764,18 +17799,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17785,25 +17820,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17812,45 +17847,45 @@
         <f>F2</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17860,45 +17895,45 @@
         <f>A12+1</f>
         <v>45727</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17908,45 +17943,45 @@
         <f>A14+1</f>
         <v>45728</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17956,45 +17991,45 @@
         <f>A16+1</f>
         <v>45729</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18004,22 +18039,22 @@
         <f>A18+1</f>
         <v>45730</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18038,7 +18073,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18060,51 +18095,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18131,7 +18166,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.82291666666666685</v>
+        <v>1.2708333333333335</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18174,16 +18209,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18197,6 +18222,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18289,11 +18324,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18301,11 +18336,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18331,11 +18366,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18343,11 +18378,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18414,18 +18449,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18435,25 +18470,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -18462,45 +18497,45 @@
         <f>F2</f>
         <v>45733</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18510,45 +18545,45 @@
         <f>A12+1</f>
         <v>45734</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18558,45 +18593,45 @@
         <f>A14+1</f>
         <v>45735</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18606,45 +18641,45 @@
         <f>A16+1</f>
         <v>45736</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18654,22 +18689,22 @@
         <f>A18+1</f>
         <v>45737</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18688,7 +18723,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18710,51 +18745,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18781,7 +18816,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.82291666666666685</v>
+        <v>1.2708333333333335</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18824,16 +18859,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18847,6 +18872,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18951,11 +18986,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18963,11 +18998,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18993,11 +19028,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -19005,11 +19040,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19076,18 +19111,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19097,25 +19132,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -19124,45 +19159,45 @@
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19172,45 +19207,45 @@
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19220,45 +19255,45 @@
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19268,45 +19303,45 @@
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19316,22 +19351,22 @@
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19350,7 +19385,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19372,51 +19407,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19443,7 +19478,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.82291666666666685</v>
+        <v>1.2708333333333335</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19486,16 +19521,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19509,6 +19534,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19664,7 +19699,7 @@
       </c>
       <c r="O4" s="45">
         <f>'week 4'!B11</f>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="Q4" s="44" t="s">
         <v>15</v>
@@ -19837,7 +19872,7 @@
       </c>
       <c r="K6" s="45">
         <f>'week 3'!B15</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="M6" s="44" t="s">
         <v>17</v>
@@ -20032,7 +20067,7 @@
       </c>
       <c r="O8" s="47">
         <f>'week 4'!B19</f>
-        <v>0</v>
+        <v>0.11458333333333337</v>
       </c>
       <c r="Q8" s="46" t="s">
         <v>19</v>
@@ -20095,11 +20130,11 @@
       </c>
       <c r="C24" s="48">
         <f>'week 3'!D28</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="D24" s="48">
         <f>'week 4'!D28</f>
-        <v>0</v>
+        <v>0.28125000000000006</v>
       </c>
       <c r="E24" s="48">
         <f>'week 5'!D28</f>
@@ -20121,7 +20156,7 @@
       <c r="M24" s="36"/>
       <c r="O24" s="36">
         <f>SUM(C4,G4,K4,O4,S4,W4,AA4,AE4)</f>
-        <v>0.25</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="P24" s="36">
         <f>SUM(C5,G5,K5,O5,S5,W5,AA5,AE5)</f>
@@ -20129,7 +20164,7 @@
       </c>
       <c r="Q24" s="36">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6,AE6)</f>
-        <v>0.13541666666666674</v>
+        <v>0.30208333333333337</v>
       </c>
       <c r="R24" s="36">
         <f>SUM(C7,G7,K7,O7,S7,W7,AA7,AE7)</f>
@@ -20137,7 +20172,7 @@
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
-        <v>0.19791666666666674</v>
+        <v>0.31250000000000011</v>
       </c>
       <c r="U24" s="36"/>
       <c r="Y24" s="36"/>
@@ -20233,6 +20268,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20435,27 +20490,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20472,23 +20526,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/ammaar/urenverantwoording sjabloom (version 1).xlsb.xlsx
+++ b/Documentatie/Urenverantwoording/ammaar/urenverantwoording sjabloom (version 1).xlsb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EIGENAAR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453894E5-9191-461D-B7FF-3F995DF077AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFFAF1D-0FCC-46AF-B5BB-A399FAEB8E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="70">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -210,6 +210,48 @@
   </si>
   <si>
     <t>overleg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dit ging wel prima </t>
+  </si>
+  <si>
+    <t>we moeten nog even oefenen met gethub</t>
+  </si>
+  <si>
+    <t>ging wel oke. Het samenwerken via whatsapp</t>
+  </si>
+  <si>
+    <t>top-down aanpassen</t>
+  </si>
+  <si>
+    <t>bezig geweest met mijn eigen state-diagram.</t>
+  </si>
+  <si>
+    <t>niks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state diagram aangepast voor betere samenwerking </t>
+  </si>
+  <si>
+    <t>bezig geweest met het verslag legging van de code</t>
+  </si>
+  <si>
+    <t>bezig geweest met de code in de chip te zetten + uitleg</t>
+  </si>
+  <si>
+    <t>bezig geweest met de chip. Het is gelukt maar er zitten een paar fouten in</t>
+  </si>
+  <si>
+    <t>de chip is gelukt en het programma is werkend aan de einde van de dag. Nu bezig met verslag.</t>
+  </si>
+  <si>
+    <t>alle code verslagen tot 1 maken. Ook in het weekend bezig geweest met het document</t>
+  </si>
+  <si>
+    <t>documenten feedback vragen</t>
+  </si>
+  <si>
+    <t>oplevering  van het project.</t>
   </si>
 </sst>
 </file>
@@ -825,18 +867,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -901,6 +931,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2847,16 +2889,16 @@
                   <c:v>0.16666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28125000000000006</c:v>
+                  <c:v>0.38541666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.21874999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.59374999999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.39583333333333326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,19 +3258,19 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>1.0729166666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.47916666666666657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38541666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.23958333333333331</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30208333333333337</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31250000000000011</c:v>
+                  <c:v>0.40625000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4528,10 +4570,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.11458333333333337</c:v>
@@ -4833,7 +4875,7 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.21874999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5144,19 +5186,19 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.2499999999999944E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.21874999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.21875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.375E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5455,10 +5497,10 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.37499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7065,16 +7107,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.11458333333333337</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.21874999999999994</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -7089,25 +7131,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>6.2499999999999944E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.21874999999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.21875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>9.375E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.37499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -14168,10 +14210,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14179,10 +14221,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14208,10 +14250,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14219,10 +14261,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14289,19 +14331,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14310,25 +14352,25 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="50">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14339,22 +14381,22 @@
         <f>F2</f>
         <v>45691</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14362,27 +14404,27 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14393,22 +14435,22 @@
         <f>A12+1</f>
         <v>45692</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14416,27 +14458,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0.13541666666666674</v>
       </c>
       <c r="C15" s="27">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14447,46 +14489,46 @@
         <f>A14+1</f>
         <v>45693</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14495,48 +14537,48 @@
         <f>A16+1</f>
         <v>45694</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14545,22 +14587,22 @@
         <f>A18+1</f>
         <v>45695</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14579,7 +14621,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14601,51 +14643,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14715,6 +14757,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14728,16 +14780,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14945,8 +14987,8 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15027,11 +15069,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15039,11 +15081,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15069,11 +15111,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15081,11 +15123,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15152,18 +15194,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15173,27 +15215,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0.25</v>
       </c>
       <c r="C11" s="27">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15202,48 +15244,48 @@
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0.17708333333333331</v>
       </c>
       <c r="C13" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15252,48 +15294,48 @@
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15302,48 +15344,48 @@
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15352,48 +15394,48 @@
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="C19" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15402,22 +15444,22 @@
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15436,7 +15478,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15458,53 +15500,53 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15577,6 +15619,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="D15:N16"/>
+    <mergeCell ref="D17:N18"/>
+    <mergeCell ref="D19:N20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="C4:D4"/>
@@ -15586,20 +15642,6 @@
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
-    <mergeCell ref="D15:N16"/>
-    <mergeCell ref="D17:N18"/>
-    <mergeCell ref="D19:N20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15610,8 +15652,8 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView topLeftCell="D6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15692,11 +15734,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15704,11 +15746,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15734,11 +15776,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15746,11 +15788,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15817,18 +15859,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15838,27 +15880,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15867,48 +15909,48 @@
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="50">
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15917,48 +15959,48 @@
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="C15" s="27">
         <v>0.5</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="50">
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15967,48 +16009,48 @@
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="50">
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16017,48 +16059,48 @@
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="50">
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16067,22 +16109,22 @@
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16101,7 +16143,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16123,51 +16165,53 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16237,6 +16281,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16250,16 +16304,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16270,8 +16314,8 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16352,11 +16396,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16364,11 +16408,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16394,11 +16438,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16406,11 +16450,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16477,18 +16521,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16498,27 +16542,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="C11" s="25">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16527,48 +16571,48 @@
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16577,48 +16621,48 @@
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16627,47 +16671,47 @@
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16677,47 +16721,47 @@
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+        <v>0.3125</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0.11458333333333337</v>
       </c>
       <c r="C19" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16727,22 +16771,22 @@
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16761,7 +16805,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16783,51 +16827,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16854,7 +16898,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>1.2708333333333335</v>
+        <v>1.3750000000000002</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16877,7 +16921,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0.28125000000000006</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -16897,6 +16941,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16910,16 +16964,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16930,8 +16974,8 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17012,11 +17056,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17024,11 +17068,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17054,11 +17098,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17066,11 +17110,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17137,18 +17181,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17158,25 +17202,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
-        <v>0</v>
+        <v>0.21874999999999994</v>
       </c>
       <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -17185,45 +17231,47 @@
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17233,45 +17281,47 @@
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17281,45 +17331,47 @@
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17329,45 +17381,45 @@
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17377,22 +17429,22 @@
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17411,7 +17463,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17433,51 +17485,55 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17504,7 +17560,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>1.2708333333333335</v>
+        <v>1.5937500000000002</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17527,7 +17583,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.21874999999999994</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -17547,6 +17603,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17560,16 +17626,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17592,8 +17648,8 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17674,11 +17730,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17686,11 +17742,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17716,11 +17772,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17728,11 +17784,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17799,18 +17855,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17820,25 +17876,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
-        <v>0</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -17847,45 +17905,47 @@
         <f>F2</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
-        <v>0</v>
+        <v>0.21874999999999994</v>
       </c>
       <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17895,45 +17955,47 @@
         <f>A12+1</f>
         <v>45727</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17943,45 +18005,47 @@
         <f>A14+1</f>
         <v>45728</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17991,45 +18055,47 @@
         <f>A16+1</f>
         <v>45729</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18039,22 +18105,22 @@
         <f>A18+1</f>
         <v>45730</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18073,7 +18139,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18095,51 +18161,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18166,7 +18232,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>1.2708333333333335</v>
+        <v>2.1875</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18189,7 +18255,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.59374999999999989</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -18209,6 +18275,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18222,16 +18298,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18242,8 +18308,8 @@
   <sheetPr codeName="Blad8"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18324,11 +18390,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18336,11 +18402,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18366,11 +18432,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18378,11 +18444,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18449,18 +18515,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18470,25 +18536,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
-        <v>0</v>
+        <v>0.37499999999999994</v>
       </c>
       <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -18497,45 +18565,47 @@
         <f>F2</f>
         <v>45733</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18545,45 +18615,47 @@
         <f>A12+1</f>
         <v>45734</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+        <v>0.4375</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18593,45 +18665,45 @@
         <f>A14+1</f>
         <v>45735</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18641,45 +18713,47 @@
         <f>A16+1</f>
         <v>45736</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18689,22 +18763,22 @@
         <f>A18+1</f>
         <v>45737</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18723,7 +18797,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18745,51 +18819,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18816,7 +18890,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>1.2708333333333335</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18839,7 +18913,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -18859,6 +18933,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18872,16 +18956,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18986,11 +19060,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18998,11 +19072,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -19028,11 +19102,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -19040,11 +19114,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19111,18 +19185,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19132,25 +19206,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -19159,45 +19233,45 @@
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19207,45 +19281,45 @@
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19255,45 +19329,45 @@
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19303,45 +19377,45 @@
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19351,22 +19425,22 @@
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19385,7 +19459,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19407,51 +19481,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19478,7 +19552,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>1.2708333333333335</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19521,6 +19595,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19534,16 +19618,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19710,7 +19784,7 @@
       </c>
       <c r="S4" s="45">
         <f>'week 5'!B11</f>
-        <v>0</v>
+        <v>0.21874999999999994</v>
       </c>
       <c r="U4" s="44" t="s">
         <v>15</v>
@@ -19721,7 +19795,7 @@
       </c>
       <c r="W4" s="45">
         <f>'week 6'!B11</f>
-        <v>0</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="Y4" s="44" t="s">
         <v>15</v>
@@ -19732,7 +19806,7 @@
       </c>
       <c r="AA4" s="45">
         <f>'week 7'!B11</f>
-        <v>0</v>
+        <v>0.37499999999999994</v>
       </c>
       <c r="AC4" s="37" t="s">
         <v>15</v>
@@ -19813,7 +19887,7 @@
       </c>
       <c r="W5" s="45">
         <f>'week 6'!B13</f>
-        <v>0</v>
+        <v>0.21874999999999994</v>
       </c>
       <c r="Y5" s="44" t="s">
         <v>16</v>
@@ -19824,7 +19898,7 @@
       </c>
       <c r="AA5" s="45">
         <f>'week 7'!B13</f>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="AC5" s="38" t="s">
         <v>16</v>
@@ -19883,7 +19957,7 @@
       </c>
       <c r="O6" s="45">
         <f>'week 4'!B15</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="Q6" s="44" t="s">
         <v>17</v>
@@ -19975,7 +20049,7 @@
       </c>
       <c r="O7" s="45">
         <f>'week 4'!B17</f>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="Q7" s="44" t="s">
         <v>18</v>
@@ -19997,7 +20071,7 @@
       </c>
       <c r="W7" s="45">
         <f>'week 6'!B17</f>
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="Y7" s="44" t="s">
         <v>18</v>
@@ -20089,7 +20163,7 @@
       </c>
       <c r="W8" s="47">
         <f>'week 6'!B19</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="Y8" s="46" t="s">
         <v>19</v>
@@ -20134,19 +20208,19 @@
       </c>
       <c r="D24" s="48">
         <f>'week 4'!D28</f>
-        <v>0.28125000000000006</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="E24" s="48">
         <f>'week 5'!D28</f>
-        <v>0</v>
+        <v>0.21874999999999994</v>
       </c>
       <c r="F24" s="48">
         <f>'week 6'!D28</f>
-        <v>0</v>
+        <v>0.59374999999999989</v>
       </c>
       <c r="G24" s="48">
         <f>'week 7'!D28</f>
-        <v>0</v>
+        <v>0.39583333333333326</v>
       </c>
       <c r="H24" s="48">
         <f>'week 8'!D28</f>
@@ -20156,23 +20230,23 @@
       <c r="M24" s="36"/>
       <c r="O24" s="36">
         <f>SUM(C4,G4,K4,O4,S4,W4,AA4,AE4)</f>
-        <v>0.41666666666666669</v>
+        <v>1.0729166666666665</v>
       </c>
       <c r="P24" s="36">
         <f>SUM(C5,G5,K5,O5,S5,W5,AA5,AE5)</f>
-        <v>0.23958333333333331</v>
+        <v>0.47916666666666657</v>
       </c>
       <c r="Q24" s="36">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6,AE6)</f>
-        <v>0.30208333333333337</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="R24" s="36">
         <f>SUM(C7,G7,K7,O7,S7,W7,AA7,AE7)</f>
-        <v>0</v>
+        <v>0.23958333333333331</v>
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
-        <v>0.31250000000000011</v>
+        <v>0.40625000000000011</v>
       </c>
       <c r="U24" s="36"/>
       <c r="Y24" s="36"/>
@@ -20268,26 +20342,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20490,26 +20544,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20526,4 +20581,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/ammaar/urenverantwoording sjabloom (version 1).xlsb.xlsx
+++ b/Documentatie/Urenverantwoording/ammaar/urenverantwoording sjabloom (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EIGENAAR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFFAF1D-0FCC-46AF-B5BB-A399FAEB8E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE42A480-8CED-4ED2-AE6F-6EA3AED48BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="72">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -212,13 +212,7 @@
     <t>overleg</t>
   </si>
   <si>
-    <t xml:space="preserve">dit ging wel prima </t>
-  </si>
-  <si>
     <t>we moeten nog even oefenen met gethub</t>
-  </si>
-  <si>
-    <t>ging wel oke. Het samenwerken via whatsapp</t>
   </si>
   <si>
     <t>top-down aanpassen</t>
@@ -252,6 +246,18 @@
   </si>
   <si>
     <t>oplevering  van het project.</t>
+  </si>
+  <si>
+    <t>maandag: wil het document af hebben. Dinsdag: laten we de code in de chip zetten en testen. (dit is niet gelukt). Woensdag: niks donderdag: het idee is dat we de gehele code werkend op de chip krijgen. We hebben feedback gekregen dat de machine weer werkt. vrijdag is de laatste fouten uit de code te halen.</t>
+  </si>
+  <si>
+    <t>maandag: state diagram voor minimaal 50% af. Dinsdag: state diagram af. Woensdag: niks vrijdag : de state diagram aanpassen en samen voegen met perijn</t>
+  </si>
+  <si>
+    <t>maandag: de topdown bespreken en aanpassen. Dinsdag: niks woensdag: de topdown feedback toevoegen. Donderdag: nog wat afmaken van gisteren</t>
+  </si>
+  <si>
+    <t>vakantie vieren: ergens de topdown aan beginnen</t>
   </si>
 </sst>
 </file>
@@ -867,6 +873,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,18 +949,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14210,10 +14216,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14221,10 +14227,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14250,10 +14256,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14261,10 +14267,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14331,19 +14337,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14352,25 +14358,25 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="54">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14381,22 +14387,22 @@
         <f>F2</f>
         <v>45691</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14404,27 +14410,27 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14435,22 +14441,22 @@
         <f>A12+1</f>
         <v>45692</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14458,27 +14464,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0.13541666666666674</v>
       </c>
       <c r="C15" s="27">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14489,46 +14495,46 @@
         <f>A14+1</f>
         <v>45693</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14537,48 +14543,48 @@
         <f>A16+1</f>
         <v>45694</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14587,22 +14593,22 @@
         <f>A18+1</f>
         <v>45695</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14621,7 +14627,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14643,51 +14649,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14757,16 +14763,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14780,6 +14776,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14987,8 +14993,8 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:N12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15069,11 +15075,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15081,11 +15087,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15111,11 +15117,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15123,11 +15129,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15194,18 +15200,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15215,27 +15221,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0.25</v>
       </c>
       <c r="C11" s="27">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15244,48 +15250,48 @@
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0.17708333333333331</v>
       </c>
       <c r="C13" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15294,48 +15300,48 @@
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15344,48 +15350,48 @@
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15394,48 +15400,48 @@
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="C19" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15444,22 +15450,22 @@
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15478,7 +15484,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15500,53 +15506,53 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15619,11 +15625,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N12"/>
+    <mergeCell ref="D13:N14"/>
     <mergeCell ref="D15:N16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
@@ -15633,15 +15643,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N12"/>
-    <mergeCell ref="D13:N14"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15652,7 +15658,7 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:G25"/>
     </sheetView>
   </sheetViews>
@@ -15734,11 +15740,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15746,11 +15752,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15776,11 +15782,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15788,11 +15794,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15859,18 +15865,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15880,27 +15886,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15909,48 +15915,48 @@
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="74">
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15959,48 +15965,48 @@
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="C15" s="27">
         <v>0.5</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="74">
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16009,48 +16015,48 @@
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="74">
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16059,48 +16065,48 @@
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="74">
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16109,22 +16115,22 @@
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16143,7 +16149,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16165,53 +16171,53 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16281,16 +16287,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16304,6 +16300,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16314,8 +16320,8 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="B9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16396,11 +16402,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16408,11 +16414,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16438,11 +16444,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16450,11 +16456,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16521,18 +16527,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16542,27 +16548,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="C11" s="25">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16571,48 +16577,48 @@
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16621,48 +16627,48 @@
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="C15" s="25">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16671,47 +16677,47 @@
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.375</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="C17" s="25">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D17" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16721,47 +16727,47 @@
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0.3125</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0.11458333333333337</v>
       </c>
       <c r="C19" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16771,22 +16777,22 @@
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16805,7 +16811,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16827,51 +16833,53 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16941,16 +16949,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16964,6 +16962,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16975,7 +16983,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:N20"/>
+      <selection activeCell="B23" sqref="B23:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17056,11 +17064,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17068,11 +17076,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17098,11 +17106,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17110,11 +17118,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17181,18 +17189,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17202,27 +17210,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0.21874999999999994</v>
       </c>
       <c r="C11" s="25">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17231,47 +17239,47 @@
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17281,47 +17289,47 @@
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17331,47 +17339,47 @@
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17381,45 +17389,45 @@
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17429,22 +17437,22 @@
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17463,7 +17471,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17485,55 +17493,55 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17603,16 +17611,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17626,6 +17624,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17648,8 +17656,8 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17730,11 +17738,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17742,11 +17750,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17772,11 +17780,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17784,11 +17792,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17855,18 +17863,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17876,27 +17884,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="C11" s="25">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17905,47 +17913,47 @@
         <f>F2</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0.21874999999999994</v>
       </c>
       <c r="C13" s="25">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17955,47 +17963,47 @@
         <f>A12+1</f>
         <v>45727</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18005,47 +18013,47 @@
         <f>A14+1</f>
         <v>45728</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0.21875</v>
       </c>
       <c r="C17" s="25">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D17" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18055,47 +18063,47 @@
         <f>A16+1</f>
         <v>45729</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>9.375E-2</v>
       </c>
       <c r="C19" s="25">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D19" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18105,22 +18113,22 @@
         <f>A18+1</f>
         <v>45730</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18139,7 +18147,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18161,51 +18169,53 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18275,16 +18285,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18298,6 +18298,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18390,11 +18400,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18402,11 +18412,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18432,11 +18442,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18444,11 +18454,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18515,18 +18525,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18536,27 +18546,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0.37499999999999994</v>
       </c>
       <c r="C11" s="25">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -18565,47 +18575,47 @@
         <f>F2</f>
         <v>45733</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="C13" s="25">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18615,47 +18625,47 @@
         <f>A12+1</f>
         <v>45734</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.4375</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18665,45 +18675,45 @@
         <f>A14+1</f>
         <v>45735</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18713,47 +18723,47 @@
         <f>A16+1</f>
         <v>45736</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18763,22 +18773,22 @@
         <f>A18+1</f>
         <v>45737</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18797,7 +18807,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18819,51 +18829,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18933,16 +18943,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18956,6 +18956,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -19060,11 +19070,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>ammaar Al-Kahef</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -19072,11 +19082,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>nhl stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -19102,11 +19112,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Rieno moedt</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -19114,11 +19124,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>cees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19185,18 +19195,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19206,25 +19216,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -19233,45 +19243,45 @@
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19281,45 +19291,45 @@
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19329,45 +19339,45 @@
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19377,45 +19387,45 @@
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19425,22 +19435,22 @@
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19459,7 +19469,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19481,51 +19491,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19595,16 +19605,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19618,6 +19618,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20342,6 +20352,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20544,27 +20574,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20581,23 +20610,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>